--- a/inst/extdata/ex02/User_18092019.xlsx
+++ b/inst/extdata/ex02/User_18092019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\DATA\endoc_beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\DATA\endoc_beta\ex02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="3" r:id="rId1"/>
@@ -52,12 +52,6 @@
     <t>BLANK</t>
   </si>
   <si>
-    <t>SN1</t>
-  </si>
-  <si>
-    <t>SN2</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
   </si>
   <si>
     <t>Concentration (µg/L)</t>
-  </si>
-  <si>
-    <t>LYSAT</t>
   </si>
   <si>
     <t>Target</t>
@@ -140,6 +131,15 @@
   </si>
   <si>
     <t>0.5 mM Glc + A</t>
+  </si>
+  <si>
+    <t>LYSATE</t>
+  </si>
+  <si>
+    <t>SUPERNATANT1</t>
+  </si>
+  <si>
+    <t>SUPERNATANT2</t>
   </si>
 </sst>
 </file>
@@ -239,6 +239,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -465,6 +466,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -582,6 +584,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3610,13 +3613,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -3625,19 +3628,19 @@
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3645,10 +3648,10 @@
         <v>43726</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -3879,7 +3882,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H19"/>
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3905,22 +3908,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -3929,19 +3932,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3962,16 +3965,16 @@
         <v>CT</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>0.626799</v>
@@ -4014,16 +4017,16 @@
         <v>CT</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>0.65531150000000005</v>
@@ -4066,16 +4069,16 @@
         <v>CT</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>0.57781269999999996</v>
@@ -4118,16 +4121,16 @@
         <v>CT</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1">
         <v>0.5715787</v>
@@ -4170,16 +4173,16 @@
         <v>CT</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1">
         <v>0.52408650000000001</v>
@@ -4222,16 +4225,16 @@
         <v>CT</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
         <v>0.49687759999999997</v>
@@ -4274,16 +4277,16 @@
         <v>CT</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>0.21877579999999999</v>
@@ -4328,16 +4331,16 @@
         <v>CT</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>0.22155159999999999</v>
@@ -4382,16 +4385,16 @@
         <v>CT</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>0.2426141</v>
@@ -4436,16 +4439,16 @@
         <v>CT</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>0.31157639999999998</v>
@@ -4490,16 +4493,16 @@
         <v>CT</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12">
         <v>0.27168799999999999</v>
@@ -4544,16 +4547,16 @@
         <v>CT</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>0.24666930000000001</v>
@@ -4598,16 +4601,16 @@
         <v>CT</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>0.26217980000000002</v>
@@ -4652,16 +4655,16 @@
         <v>CT</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>0.2495522</v>
@@ -4706,16 +4709,16 @@
         <v>CT</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>0.25193660000000001</v>
@@ -4760,16 +4763,16 @@
         <v>CT</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1">
         <v>0.45868059999999999</v>
@@ -4814,16 +4817,16 @@
         <v>CT</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" s="1">
         <v>0.4074757</v>
@@ -4868,16 +4871,16 @@
         <v>CT</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1">
         <v>0.30263909999999999</v>
@@ -4915,8 +4918,1063 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",CELL("nomfichier",A1)))</f>
+        <v>Empty</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.2538959999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.207935</v>
+      </c>
+      <c r="K2" s="1">
+        <v>500</v>
+      </c>
+      <c r="L2" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M2" s="1">
+        <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
+        <v>3201.6453105132787</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N19" si="1">(L2/10^3 * M2)</f>
+        <v>160.08226552566396</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>$F$2</f>
+        <v>Control</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.95461430000000003</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.95435669999999995</v>
+      </c>
+      <c r="K3" s="1">
+        <v>500</v>
+      </c>
+      <c r="L3" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M3" s="1">
+        <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
+        <v>2343.1045544341446</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="1"/>
+        <v>117.15522772170723</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" ref="F4:F19" si="2">$F$2</f>
+        <v>Control</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.90873990000000004</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.95996210000000004</v>
+      </c>
+      <c r="K4" s="1">
+        <v>500</v>
+      </c>
+      <c r="L4" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M4" s="1">
+        <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
+        <v>2280.9451749132054</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
+        <v>114.04725874566027</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.8890671</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.85035139999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <v>500</v>
+      </c>
+      <c r="L5" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M5" s="1">
+        <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
+        <v>2081.7776744903585</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>104.08888372451793</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.81566039999999995</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.83765420000000002</v>
+      </c>
+      <c r="K6" s="1">
+        <v>500</v>
+      </c>
+      <c r="L6" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M6" s="1">
+        <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
+        <v>1949.4841537190971</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>97.474207685954866</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.67774559999999995</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.729298</v>
+      </c>
+      <c r="K7" s="1">
+        <v>500</v>
+      </c>
+      <c r="L7" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M7" s="1">
+        <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
+        <v>1572.8516747968688</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
+        <v>78.642583739843445</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>0.2334291</v>
+      </c>
+      <c r="J8">
+        <v>0.22634180000000001</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8" s="4">
+        <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
+        <v>5.2914918112731746</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0.52914918112731746</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O13" si="3">N8/(N2+N8+N14) * 100</f>
+        <v>0.32484942653363402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>0.2091017</v>
+      </c>
+      <c r="J9">
+        <v>0.21155769999999999</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9" s="4">
+        <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
+        <v>3.5358923672677443</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0.35358923672677445</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0.29604674048856539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>0.23145579999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.23084840000000001</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" s="4">
+        <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
+        <v>5.4059731956745161</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0.54059731956745161</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.46633618065917937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>0.37802340000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.36072949999999998</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" s="4">
+        <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
+        <v>18.214212951071328</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1.8214212951071329</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>1.6483795374866261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12">
+        <v>0.31273220000000002</v>
+      </c>
+      <c r="J12">
+        <v>0.3057628</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" s="4">
+        <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
+        <v>12.582652086154329</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>1.2582652086154331</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>1.2341365353298475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>0.3950921</v>
+      </c>
+      <c r="J13">
+        <v>0.34331070000000002</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" s="4">
+        <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
+        <v>18.197721599934521</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1.8197721599934522</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>2.1850068193398844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.42339830000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.41215160000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
+        <v>22.791856472563815</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2791856472563814</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" ref="O14:O19" si="4">N14/(N2+N14) * 100</f>
+        <v>1.4037726509533184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.3816059</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.3797816</v>
+      </c>
+      <c r="K15" s="1">
+        <v>16</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
+        <v>19.281463208261354</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9281463208261354</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6191566088289149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.31764350000000002</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.31765680000000002</v>
+      </c>
+      <c r="K16" s="1">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1">
+        <v>100</v>
+      </c>
+      <c r="M16" s="1">
+        <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
+        <v>13.365225243344309</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.336522524334431</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1583278946345215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.67039669999999996</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.64508089999999996</v>
+      </c>
+      <c r="K17" s="1">
+        <v>16</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
+        <v>45.873839946630632</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="1"/>
+        <v>4.587383994663063</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2211460615456939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.53370550000000005</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.49938559999999999</v>
+      </c>
+      <c r="K18" s="1">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
+        <v>32.226327679597169</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2226327679597171</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2003315629695481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>Blank!A$2</f>
+        <v>43726</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>GENE</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Empty</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.4803519</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.46916459999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <f>10^((LOG(AVERAGE(I19:J19)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K19</f>
+        <v>28.221512186912783</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8221512186912783</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4642612169888531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4942,22 +6000,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -4966,19 +6024,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4995,26 +6053,26 @@
         <v>GENE</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",CELL("nomfichier",A1)))</f>
-        <v>Empty</v>
+        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A7),LEN(CELL("nomfichier",A7))-SEARCH("]",CELL("nomfichier",A7)))</f>
+        <v>GENE</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
-        <v>1.2538959999999999</v>
+        <v>1.0355859999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>1.207935</v>
+        <v>1.0118339999999999</v>
       </c>
       <c r="K2" s="1">
         <v>500</v>
@@ -5025,11 +6083,11 @@
       </c>
       <c r="M2" s="1">
         <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
-        <v>3201.6453105132787</v>
+        <v>2557.2332216466452</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" ref="N2:N19" si="1">(L2/10^3 * M2)</f>
-        <v>160.08226552566396</v>
+        <v>127.86166108233226</v>
       </c>
       <c r="O2" s="1"/>
     </row>
@@ -5048,26 +6106,25 @@
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>$F$2</f>
-        <v>Control</v>
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
-        <v>0.95461430000000003</v>
+        <v>1.1190910000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.95435669999999995</v>
+        <v>1.106916</v>
       </c>
       <c r="K3" s="1">
         <v>500</v>
@@ -5078,11 +6135,11 @@
       </c>
       <c r="M3" s="1">
         <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
-        <v>2343.1045544341446</v>
+        <v>2834.3341956146328</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="1"/>
-        <v>117.15522772170723</v>
+        <v>141.71670978073163</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -5101,26 +6158,25 @@
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F19" si="2">$F$2</f>
-        <v>Control</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
-        <v>0.90873990000000004</v>
+        <v>0.91001900000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>0.95996210000000004</v>
+        <v>0.93138609999999999</v>
       </c>
       <c r="K4" s="1">
         <v>500</v>
@@ -5131,11 +6187,11 @@
       </c>
       <c r="M4" s="1">
         <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
-        <v>2280.9451749132054</v>
+        <v>2238.8420855179706</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="1"/>
-        <v>114.04725874566027</v>
+        <v>111.94210427589854</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -5154,26 +6210,25 @@
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1">
-        <v>0.8890671</v>
+        <v>0.92741660000000004</v>
       </c>
       <c r="J5" s="1">
-        <v>0.85035139999999998</v>
+        <v>0.89808770000000004</v>
       </c>
       <c r="K5" s="1">
         <v>500</v>
@@ -5184,11 +6239,11 @@
       </c>
       <c r="M5" s="1">
         <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
-        <v>2081.7776744903585</v>
+        <v>2214.3288090892597</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>104.08888372451793</v>
+        <v>110.716440454463</v>
       </c>
       <c r="O5" s="1"/>
     </row>
@@ -5207,26 +6262,25 @@
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1">
-        <v>0.81566039999999995</v>
+        <v>0.88691779999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.83765420000000002</v>
+        <v>0.93771780000000005</v>
       </c>
       <c r="K6" s="1">
         <v>500</v>
@@ -5237,11 +6291,11 @@
       </c>
       <c r="M6" s="1">
         <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
-        <v>1949.4841537190971</v>
+        <v>2212.9898520212132</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>97.474207685954866</v>
+        <v>110.64949260106067</v>
       </c>
       <c r="O6" s="1"/>
     </row>
@@ -5260,26 +6314,25 @@
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
-        <v>0.67774559999999995</v>
+        <v>0.64143209999999995</v>
       </c>
       <c r="J7" s="1">
-        <v>0.729298</v>
+        <v>0.6448644</v>
       </c>
       <c r="K7" s="1">
         <v>500</v>
@@ -5290,11 +6343,11 @@
       </c>
       <c r="M7" s="1">
         <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
-        <v>1572.8516747968688</v>
+        <v>1389.2600778962981</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="1"/>
-        <v>78.642583739843445</v>
+        <v>69.463003894814904</v>
       </c>
       <c r="O7" s="1"/>
     </row>
@@ -5313,26 +6366,25 @@
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>0.2334291</v>
+        <v>0.2401431</v>
       </c>
       <c r="J8">
-        <v>0.22634180000000001</v>
+        <v>0.23591519999999999</v>
       </c>
       <c r="K8">
         <v>16</v>
@@ -5342,15 +6394,15 @@
       </c>
       <c r="M8" s="4">
         <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
-        <v>5.2914918112731746</v>
+        <v>6.0289238751467114</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>0.52914918112731746</v>
+        <v>0.60289238751467122</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O13" si="3">N8/(N2+N8+N14) * 100</f>
-        <v>0.32484942653363402</v>
+        <f t="shared" ref="O8:O13" si="2">N8/(N2+N8+N14) * 100</f>
+        <v>0.46367027872035632</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -5368,26 +6420,25 @@
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9">
-        <v>0.2091017</v>
+        <v>0.2476005</v>
       </c>
       <c r="J9">
-        <v>0.21155769999999999</v>
+        <v>0.24172689999999999</v>
       </c>
       <c r="K9">
         <v>16</v>
@@ -5397,15 +6448,15 @@
       </c>
       <c r="M9" s="4">
         <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
-        <v>3.5358923672677443</v>
+        <v>6.6319869299112977</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>0.35358923672677445</v>
+        <v>0.66319869299112977</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
-        <v>0.29604674048856539</v>
+        <f t="shared" si="2"/>
+        <v>0.46121745190027252</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -5423,26 +6474,25 @@
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
-        <v>0.23145579999999999</v>
+        <v>0.22331280000000001</v>
       </c>
       <c r="J10">
-        <v>0.23084840000000001</v>
+        <v>0.22508300000000001</v>
       </c>
       <c r="K10">
         <v>16</v>
@@ -5452,15 +6502,15 @@
       </c>
       <c r="M10" s="4">
         <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
-        <v>5.4059731956745161</v>
+        <v>4.7785027125304396</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>0.54059731956745161</v>
+        <v>0.47785027125304397</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
-        <v>0.46633618065917937</v>
+        <f t="shared" si="2"/>
+        <v>0.41996869323451325</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -5478,26 +6528,25 @@
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11">
-        <v>0.37802340000000001</v>
+        <v>0.39683059999999998</v>
       </c>
       <c r="J11">
-        <v>0.36072949999999998</v>
+        <v>0.38964880000000002</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -5507,15 +6556,15 @@
       </c>
       <c r="M11" s="4">
         <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
-        <v>18.214212951071328</v>
+        <v>20.466917744195115</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>1.8214212951071329</v>
+        <v>2.0466917744195117</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
-        <v>1.6483795374866261</v>
+        <f t="shared" si="2"/>
+        <v>1.7699010931560386</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -5533,26 +6582,25 @@
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12">
-        <v>0.31273220000000002</v>
+        <v>0.39607439999999999</v>
       </c>
       <c r="J12">
-        <v>0.3057628</v>
+        <v>0.38472200000000001</v>
       </c>
       <c r="K12">
         <v>16</v>
@@ -5562,15 +6610,15 @@
       </c>
       <c r="M12" s="4">
         <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
-        <v>12.582652086154329</v>
+        <v>20.198218450268179</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>1.2582652086154331</v>
+        <v>2.0198218450268182</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
-        <v>1.2341365353298475</v>
+        <f t="shared" si="2"/>
+        <v>1.7334560609271681</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -5588,26 +6636,25 @@
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13">
-        <v>0.3950921</v>
+        <v>0.32620710000000003</v>
       </c>
       <c r="J13">
-        <v>0.34331070000000002</v>
+        <v>0.3172896</v>
       </c>
       <c r="K13">
         <v>16</v>
@@ -5617,15 +6664,15 @@
       </c>
       <c r="M13" s="4">
         <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
-        <v>18.197721599934521</v>
+        <v>13.747476996967302</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>1.8197721599934522</v>
+        <v>1.3747476996967303</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
-        <v>2.1850068193398844</v>
+        <f t="shared" si="2"/>
+        <v>1.8858250814996158</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -5643,26 +6690,25 @@
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
-        <v>0.42339830000000001</v>
+        <v>0.34146710000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.41215160000000001</v>
+        <v>0.34197699999999998</v>
       </c>
       <c r="K14" s="1">
         <v>16</v>
@@ -5672,15 +6718,15 @@
       </c>
       <c r="M14" s="1">
         <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
-        <v>22.791856472563815</v>
+        <v>15.615480906287832</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="1"/>
-        <v>2.2791856472563814</v>
+        <v>1.5615480906287833</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" ref="O14:O19" si="4">N14/(N2+N14) * 100</f>
-        <v>1.4037726509533184</v>
+        <f t="shared" ref="O14:O19" si="3">N14/(N2+N14) * 100</f>
+        <v>1.2065440971579773</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -5698,26 +6744,25 @@
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
-        <v>0.3816059</v>
+        <v>0.33414460000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.3797816</v>
+        <v>0.31757930000000001</v>
       </c>
       <c r="K15" s="1">
         <v>16</v>
@@ -5727,15 +6772,15 @@
       </c>
       <c r="M15" s="1">
         <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
-        <v>19.281463208261354</v>
+        <v>14.131527512308164</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="1"/>
-        <v>1.9281463208261354</v>
+        <v>1.4131527512308164</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6191566088289149</v>
+        <f t="shared" si="3"/>
+        <v>0.98732209074486044</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5753,26 +6798,25 @@
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
-        <v>0.31764350000000002</v>
+        <v>0.31845630000000003</v>
       </c>
       <c r="J16" s="1">
-        <v>0.31765680000000002</v>
+        <v>0.32239380000000001</v>
       </c>
       <c r="K16" s="1">
         <v>16</v>
@@ -5782,15 +6826,15 @@
       </c>
       <c r="M16" s="1">
         <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
-        <v>13.365225243344309</v>
+        <v>13.624008881401608</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="1"/>
-        <v>1.336522524334431</v>
+        <v>1.3624008881401608</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1583278946345215</v>
+        <f t="shared" si="3"/>
+        <v>1.2024242868081192</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -5808,26 +6852,25 @@
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1">
-        <v>0.67039669999999996</v>
+        <v>0.49203330000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.64508089999999996</v>
+        <v>0.46866619999999998</v>
       </c>
       <c r="K17" s="1">
         <v>16</v>
@@ -5837,15 +6880,15 @@
       </c>
       <c r="M17" s="1">
         <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
-        <v>45.873839946630632</v>
+        <v>28.75633255459196</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="1"/>
-        <v>4.587383994663063</v>
+        <v>2.8756332554591961</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="4"/>
-        <v>4.2211460615456939</v>
+        <f t="shared" si="3"/>
+        <v>2.5315439374781055</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -5863,26 +6906,25 @@
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" s="1">
-        <v>0.53370550000000005</v>
+        <v>0.58517989999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.49938559999999999</v>
+        <v>0.57826979999999994</v>
       </c>
       <c r="K18" s="1">
         <v>16</v>
@@ -5892,15 +6934,15 @@
       </c>
       <c r="M18" s="1">
         <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
-        <v>32.226327679597169</v>
+        <v>38.506187990899306</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="1"/>
-        <v>3.2226327679597171</v>
+        <v>3.850618799089931</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="4"/>
-        <v>3.2003315629695481</v>
+        <f t="shared" si="3"/>
+        <v>3.3629825787967458</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -5918,1057 +6960,19 @@
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Empty</v>
+        <v>GENE</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.4803519</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.46916459999999999</v>
-      </c>
-      <c r="K19" s="1">
-        <v>16</v>
-      </c>
-      <c r="L19" s="1">
-        <v>100</v>
-      </c>
-      <c r="M19" s="1">
-        <f>10^((LOG(AVERAGE(I19:J19)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K19</f>
-        <v>28.221512186912783</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8221512186912783</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4642612169888531</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A7),LEN(CELL("nomfichier",A7))-SEARCH("]",CELL("nomfichier",A7)))</f>
-        <v>GENE</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.0355859999999999</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.0118339999999999</v>
-      </c>
-      <c r="K2" s="1">
-        <v>500</v>
-      </c>
-      <c r="L2" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M2" s="1">
-        <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
-        <v>2557.2332216466452</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N19" si="1">(L2/10^3 * M2)</f>
-        <v>127.86166108233226</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.1190910000000001</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.106916</v>
-      </c>
-      <c r="K3" s="1">
-        <v>500</v>
-      </c>
-      <c r="L3" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M3" s="1">
-        <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
-        <v>2834.3341956146328</v>
-      </c>
-      <c r="N3" s="1">
-        <f t="shared" si="1"/>
-        <v>141.71670978073163</v>
-      </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.91001900000000002</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.93138609999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <v>500</v>
-      </c>
-      <c r="L4" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M4" s="1">
-        <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
-        <v>2238.8420855179706</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="1"/>
-        <v>111.94210427589854</v>
-      </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.92741660000000004</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.89808770000000004</v>
-      </c>
-      <c r="K5" s="1">
-        <v>500</v>
-      </c>
-      <c r="L5" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M5" s="1">
-        <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
-        <v>2214.3288090892597</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>110.716440454463</v>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.88691779999999998</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.93771780000000005</v>
-      </c>
-      <c r="K6" s="1">
-        <v>500</v>
-      </c>
-      <c r="L6" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M6" s="1">
-        <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
-        <v>2212.9898520212132</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="1"/>
-        <v>110.64949260106067</v>
-      </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.64143209999999995</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.6448644</v>
-      </c>
-      <c r="K7" s="1">
-        <v>500</v>
-      </c>
-      <c r="L7" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M7" s="1">
-        <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
-        <v>1389.2600778962981</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="1"/>
-        <v>69.463003894814904</v>
-      </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B8" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>0.2401431</v>
-      </c>
-      <c r="J8">
-        <v>0.23591519999999999</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
-      <c r="M8" s="4">
-        <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
-        <v>6.0289238751467114</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.60289238751467122</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ref="O8:O13" si="2">N8/(N2+N8+N14) * 100</f>
-        <v>0.46367027872035632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>0.2476005</v>
-      </c>
-      <c r="J9">
-        <v>0.24172689999999999</v>
-      </c>
-      <c r="K9">
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9" s="4">
-        <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
-        <v>6.6319869299112977</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>0.66319869299112977</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>0.46121745190027252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B10" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>0.22331280000000001</v>
-      </c>
-      <c r="J10">
-        <v>0.22508300000000001</v>
-      </c>
-      <c r="K10">
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10" s="4">
-        <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
-        <v>4.7785027125304396</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0.47785027125304397</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0.41996869323451325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11">
-        <v>0.39683059999999998</v>
-      </c>
-      <c r="J11">
-        <v>0.38964880000000002</v>
-      </c>
-      <c r="K11">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-      <c r="M11" s="4">
-        <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
-        <v>20.466917744195115</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>2.0466917744195117</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>1.7699010931560386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12">
-        <v>0.39607439999999999</v>
-      </c>
-      <c r="J12">
-        <v>0.38472200000000001</v>
-      </c>
-      <c r="K12">
-        <v>16</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12" s="4">
-        <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
-        <v>20.198218450268179</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>2.0198218450268182</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>1.7334560609271681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B13" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13">
-        <v>0.32620710000000003</v>
-      </c>
-      <c r="J13">
-        <v>0.3172896</v>
-      </c>
-      <c r="K13">
-        <v>16</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
-      </c>
-      <c r="M13" s="4">
-        <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
-        <v>13.747476996967302</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>1.3747476996967303</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>1.8858250814996158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.34146710000000002</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.34197699999999998</v>
-      </c>
-      <c r="K14" s="1">
-        <v>16</v>
-      </c>
-      <c r="L14" s="1">
-        <v>100</v>
-      </c>
-      <c r="M14" s="1">
-        <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
-        <v>15.615480906287832</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5615480906287833</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" ref="O14:O19" si="3">N14/(N2+N14) * 100</f>
-        <v>1.2065440971579773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.33414460000000001</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.31757930000000001</v>
-      </c>
-      <c r="K15" s="1">
-        <v>16</v>
-      </c>
-      <c r="L15" s="1">
-        <v>100</v>
-      </c>
-      <c r="M15" s="1">
-        <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
-        <v>14.131527512308164</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4131527512308164</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="3"/>
-        <v>0.98732209074486044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.31845630000000003</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.32239380000000001</v>
-      </c>
-      <c r="K16" s="1">
-        <v>16</v>
-      </c>
-      <c r="L16" s="1">
-        <v>100</v>
-      </c>
-      <c r="M16" s="1">
-        <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
-        <v>13.624008881401608</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3624008881401608</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2024242868081192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.49203330000000001</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.46866619999999998</v>
-      </c>
-      <c r="K17" s="1">
-        <v>16</v>
-      </c>
-      <c r="L17" s="1">
-        <v>100</v>
-      </c>
-      <c r="M17" s="1">
-        <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
-        <v>28.75633255459196</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8756332554591961</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="3"/>
-        <v>2.5315439374781055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.58517989999999998</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.57826979999999994</v>
-      </c>
-      <c r="K18" s="1">
-        <v>16</v>
-      </c>
-      <c r="L18" s="1">
-        <v>100</v>
-      </c>
-      <c r="M18" s="1">
-        <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
-        <v>38.506187990899306</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="1"/>
-        <v>3.850618799089931</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3629825787967458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <f>Blank!A$2</f>
-        <v>43726</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>GENE</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>GENE</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1">
         <v>0.39259189999999999</v>
